--- a/ipynb/corporate-finance/datasets/form1.xlsx
+++ b/ipynb/corporate-finance/datasets/form1.xlsx
@@ -265,12 +265,12 @@
     <t>토마토시스템</t>
   </si>
   <si>
+    <t>키움제8호스팩</t>
+  </si>
+  <si>
     <t>트루엔</t>
   </si>
   <si>
-    <t>키움제8호스팩</t>
-  </si>
-  <si>
     <t>씨유박스</t>
   </si>
   <si>
@@ -298,10 +298,10 @@
     <t>하이제8호스팩</t>
   </si>
   <si>
+    <t>KB제25호스팩</t>
+  </si>
+  <si>
     <t>엔에이치스팩29호</t>
-  </si>
-  <si>
-    <t>KB제25호스팩</t>
   </si>
   <si>
     <t>하나29호스팩</t>
@@ -1953,10 +1953,10 @@
         <v>1160</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="G20" t="s">
         <v>127</v>
@@ -1971,7 +1971,7 @@
         <v>127</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
         <v>127</v>
@@ -1980,7 +1980,7 @@
         <v>5000</v>
       </c>
       <c r="N20">
-        <v>17.24</v>
+        <v>41.38</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
@@ -2006,7 +2006,7 @@
         <v>1160</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>480</v>
@@ -2059,10 +2059,10 @@
         <v>1160</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
         <v>127</v>
@@ -2077,7 +2077,7 @@
         <v>127</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
         <v>127</v>
@@ -2086,7 +2086,7 @@
         <v>5000</v>
       </c>
       <c r="N22">
-        <v>41.38</v>
+        <v>17.24</v>
       </c>
       <c r="O22" t="s">
         <v>29</v>
@@ -2483,10 +2483,10 @@
         <v>1189</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F30">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
         <v>127</v>
@@ -2501,7 +2501,7 @@
         <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s">
         <v>127</v>
@@ -2510,7 +2510,7 @@
         <v>5000</v>
       </c>
       <c r="N30">
-        <v>35.24</v>
+        <v>16.82</v>
       </c>
       <c r="O30" t="s">
         <v>32</v>
@@ -2536,10 +2536,10 @@
         <v>1189</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F31">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>127</v>
@@ -2554,7 +2554,7 @@
         <v>127</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s">
         <v>127</v>
@@ -2563,7 +2563,7 @@
         <v>5000</v>
       </c>
       <c r="N31">
-        <v>31.12</v>
+        <v>16.82</v>
       </c>
       <c r="O31" t="s">
         <v>32</v>
@@ -2589,10 +2589,10 @@
         <v>1189</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32">
-        <v>200</v>
+        <v>419</v>
       </c>
       <c r="G32" t="s">
         <v>127</v>
@@ -2607,7 +2607,7 @@
         <v>127</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s">
         <v>127</v>
@@ -2616,7 +2616,7 @@
         <v>5000</v>
       </c>
       <c r="N32">
-        <v>16.82</v>
+        <v>35.24</v>
       </c>
       <c r="O32" t="s">
         <v>32</v>
@@ -2642,10 +2642,10 @@
         <v>1189</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F33">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="G33" t="s">
         <v>127</v>
@@ -2660,7 +2660,7 @@
         <v>127</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s">
         <v>127</v>
@@ -2669,7 +2669,7 @@
         <v>5000</v>
       </c>
       <c r="N33">
-        <v>16.82</v>
+        <v>31.12</v>
       </c>
       <c r="O33" t="s">
         <v>32</v>
@@ -2798,13 +2798,13 @@
         <v>106</v>
       </c>
       <c r="D36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
         <v>127</v>
@@ -2825,7 +2825,7 @@
         <v>127</v>
       </c>
       <c r="M36">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -2837,7 +2837,7 @@
         <v>178</v>
       </c>
       <c r="Q36">
-        <v>1875000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2851,13 +2851,13 @@
         <v>106</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
         <v>127</v>
@@ -2878,7 +2878,7 @@
         <v>127</v>
       </c>
       <c r="M37">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -2890,7 +2890,7 @@
         <v>178</v>
       </c>
       <c r="Q37">
-        <v>3750000</v>
+        <v>1875000</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2907,10 +2907,10 @@
         <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F38">
-        <v>180</v>
+        <v>22.5</v>
       </c>
       <c r="G38" t="s">
         <v>127</v>
@@ -2925,7 +2925,7 @@
         <v>127</v>
       </c>
       <c r="K38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s">
         <v>127</v>
@@ -2934,7 +2934,7 @@
         <v>15000</v>
       </c>
       <c r="N38">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="O38" t="s">
         <v>150</v>
@@ -2951,19 +2951,19 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>106</v>
       </c>
       <c r="D39">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F39">
-        <v>196</v>
+        <v>22.5</v>
       </c>
       <c r="G39" t="s">
         <v>127</v>
@@ -2978,25 +2978,25 @@
         <v>127</v>
       </c>
       <c r="K39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s">
         <v>127</v>
       </c>
       <c r="M39">
-        <v>9800</v>
+        <v>15000</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="Q39">
-        <v>1494420</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3013,10 +3013,10 @@
         <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F40">
-        <v>22.5</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
         <v>127</v>
@@ -3031,7 +3031,7 @@
         <v>127</v>
       </c>
       <c r="K40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s">
         <v>127</v>
@@ -3040,7 +3040,7 @@
         <v>15000</v>
       </c>
       <c r="N40">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O40" t="s">
         <v>150</v>
@@ -3057,19 +3057,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
       </c>
       <c r="D41">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>22.5</v>
+        <v>196</v>
       </c>
       <c r="G41" t="s">
         <v>127</v>
@@ -3084,25 +3084,25 @@
         <v>127</v>
       </c>
       <c r="K41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s">
         <v>127</v>
       </c>
       <c r="M41">
-        <v>15000</v>
+        <v>9800</v>
       </c>
       <c r="N41">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="Q41">
-        <v>3150000</v>
+        <v>1494420</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3225,10 +3225,10 @@
         <v>290</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F44">
-        <v>275.5</v>
+        <v>14.5</v>
       </c>
       <c r="G44" t="s">
         <v>127</v>
@@ -3243,7 +3243,7 @@
         <v>127</v>
       </c>
       <c r="K44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L44" t="s">
         <v>127</v>
@@ -3252,7 +3252,7 @@
         <v>20000</v>
       </c>
       <c r="N44">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="O44" t="s">
         <v>153</v>
@@ -3278,10 +3278,10 @@
         <v>290</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F45">
-        <v>14.5</v>
+        <v>275.5</v>
       </c>
       <c r="G45" t="s">
         <v>127</v>
@@ -3296,7 +3296,7 @@
         <v>127</v>
       </c>
       <c r="K45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s">
         <v>127</v>
@@ -3305,7 +3305,7 @@
         <v>20000</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O45" t="s">
         <v>153</v>
@@ -3331,10 +3331,10 @@
         <v>320</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F46">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="G46" t="s">
         <v>127</v>
@@ -3349,7 +3349,7 @@
         <v>127</v>
       </c>
       <c r="K46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s">
         <v>127</v>
@@ -3358,7 +3358,7 @@
         <v>16000</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="O46" t="s">
         <v>154</v>
@@ -3384,10 +3384,10 @@
         <v>320</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F47">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>127</v>
@@ -3402,7 +3402,7 @@
         <v>127</v>
       </c>
       <c r="K47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s">
         <v>127</v>
@@ -3411,7 +3411,7 @@
         <v>16000</v>
       </c>
       <c r="N47">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="O47" t="s">
         <v>154</v>
@@ -3646,13 +3646,13 @@
         <v>106</v>
       </c>
       <c r="D52">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F52">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
         <v>127</v>
@@ -3685,7 +3685,7 @@
         <v>47</v>
       </c>
       <c r="Q52">
-        <v>9562500</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3699,13 +3699,13 @@
         <v>106</v>
       </c>
       <c r="D53">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F53">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="G53" t="s">
         <v>127</v>
@@ -3738,7 +3738,7 @@
         <v>47</v>
       </c>
       <c r="Q53">
-        <v>3000000</v>
+        <v>9562500</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4126,10 +4126,10 @@
         <v>956.25</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>143.4375</v>
+        <v>812.8125</v>
       </c>
       <c r="G61" t="s">
         <v>127</v>
@@ -4144,7 +4144,7 @@
         <v>127</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s">
         <v>127</v>
@@ -4153,7 +4153,7 @@
         <v>34000</v>
       </c>
       <c r="N61">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="O61" t="s">
         <v>164</v>
@@ -4179,10 +4179,10 @@
         <v>956.25</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F62">
-        <v>812.8125</v>
+        <v>143.4375</v>
       </c>
       <c r="G62" t="s">
         <v>127</v>
@@ -4197,7 +4197,7 @@
         <v>127</v>
       </c>
       <c r="K62" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s">
         <v>127</v>
@@ -4206,7 +4206,7 @@
         <v>34000</v>
       </c>
       <c r="N62">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="O62" t="s">
         <v>164</v>
